--- a/Data/PRS313_with_23andMe.xlsx
+++ b/Data/PRS313_with_23andMe.xlsx
@@ -34,19 +34,19 @@
     <t>EAFc</t>
   </si>
   <si>
-    <t>Overall Breast Cancerd</t>
-  </si>
-  <si>
-    <t>ER-positivee</t>
-  </si>
-  <si>
-    <t>ER-negativef</t>
-  </si>
-  <si>
-    <t>hybrid ER-positiveg</t>
-  </si>
-  <si>
-    <t>hybrid ER-negativeh</t>
+    <t>Overall Breast Cancer</t>
+  </si>
+  <si>
+    <t>ER-positive</t>
+  </si>
+  <si>
+    <t>ER-negative</t>
+  </si>
+  <si>
+    <t>hybrid ER-positive</t>
+  </si>
+  <si>
+    <t>hybrid ER-negative</t>
   </si>
   <si>
     <t>in_23andMe</t>
@@ -1095,7 +1095,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,13 +1105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1172,10 +1166,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1509,7 +1503,7 @@
     <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="169.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="123">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1661,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1813,7 +1807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -2041,7 +2035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -2079,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2117,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -2269,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -2307,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -2421,7 +2415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -2459,7 +2453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
